--- a/biology/Histoire de la zoologie et de la botanique/Auguste_Barthélemy_Langlois/Auguste_Barthélemy_Langlois.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Auguste_Barthélemy_Langlois/Auguste_Barthélemy_Langlois.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Auguste_Barth%C3%A9lemy_Langlois</t>
+          <t>Auguste_Barthélemy_Langlois</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le père Auguste Barthélemy Langlois est un botaniste français, né le 24 avril 1832 à Chavanay (Loire) et mort le 31 juillet 1900[1] à Saint-Martinville en Louisiane.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le père Auguste Barthélemy Langlois est un botaniste français, né le 24 avril 1832 à Chavanay (Loire) et mort le 31 juillet 1900 à Saint-Martinville en Louisiane.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Auguste_Barth%C3%A9lemy_Langlois</t>
+          <t>Auguste_Barthélemy_Langlois</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il étudie au séminaire de Montbrison où, en plus de la théologie, il découvre la botanique. En 1855, il part aux États-Unis et passe deux ans à poursuivre sa formation à Cincinnati. Sa première paroisse est à la Pointe à la Hache, située à environ 70 km de La Nouvelle-Orléans, où il demeurera trente ans. En 1887, il s’installe Saint-Martinville.
 Il herborise intensivement dans les régions environnantes ainsi que dans le Mississippi et en Alabama. Langlois fait parvenir ses échantillons de lichen à divers spécialistes comme Auguste Marie Hue de Paris, Johannes Müller Argoviensis d’Aargau, John Wiegand Eckfeldt à Philadelphie. Les plantes à fleurs sont envoyées à John Donnell Smith de Baltimore, les herbacées à George S. Vasey de Washington, les hépatiques à Franz Stephani de Leipzig et les mousses à Jules Cardot et à Ferdinand Renauld.
-Le père Langlois décrit dans son Catalogue provisoire de plantes phanérogames et cryptogames de la Basse-Louisiane 1 194 plantes à fleurs, environ 650 champignons, 96 mousses, 29 héptaiques mais pas de lichens. Son herbier, riche de 20 000 spécimens est conservé à l’Université catholique d'Amérique qui porte aujourd’hui son nom. Les doubles de cet herbier[2], mais des spécimens de Langlois se trouvent dans de nombreux autres herbiers des États-Unis et d’Europe.
+Le père Langlois décrit dans son Catalogue provisoire de plantes phanérogames et cryptogames de la Basse-Louisiane 1 194 plantes à fleurs, environ 650 champignons, 96 mousses, 29 héptaiques mais pas de lichens. Son herbier, riche de 20 000 spécimens est conservé à l’Université catholique d'Amérique qui porte aujourd’hui son nom. Les doubles de cet herbier, mais des spécimens de Langlois se trouvent dans de nombreux autres herbiers des États-Unis et d’Europe.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Auguste_Barth%C3%A9lemy_Langlois</t>
+          <t>Auguste_Barthélemy_Langlois</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1887 : Catalogue provisoire de plantes phanérogames et cryptogames de la Basse-Louisiane, États-Unis d'Amérique (Saint-Étienne).
 1887 (date non sure) : « List of Plants, Native and Introduced, of Plaquemines County, Louisiana ».
